--- a/data/income_statement/2digits/size/22_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/22_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>22-Manufacture of rubber and plastic products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>22-Manufacture of rubber and plastic products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,836 +841,946 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>13434393.59831</v>
+        <v>13122488.44194</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>17029759.7697</v>
+        <v>16573937.12511</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>23814770.8997</v>
+        <v>23233166.21059</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>26134323.03675</v>
+        <v>25776110.74522</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>27812500.65468</v>
+        <v>27542594.53452</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>33270144.7976</v>
+        <v>32565057.38343</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>34835549.60862999</v>
+        <v>37732754.71668</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>44818541.13186</v>
+        <v>43671545.42551</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>60607104.17803</v>
+        <v>59293418.95319</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>65643613.71769001</v>
+        <v>64786326.78920001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>74748818.27905001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>73857878.55746</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>96597008.976</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>9003457.32064</v>
+        <v>8748445.70475</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>11831506.09838</v>
+        <v>11439128.24101</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>16144770.41073</v>
+        <v>15650471.85032</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18214825.70885</v>
+        <v>17830355.33465</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>18999474.47224</v>
+        <v>18735584.8627</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22688955.06813</v>
+        <v>21992209.08455</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>25573922.09013</v>
+        <v>26632989.73546</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>32256129.58546</v>
+        <v>31037278.72238</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>43587493.20423</v>
+        <v>42534587.93437999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>43946353.14118</v>
+        <v>43357709.93487</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>49185566.80905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>48536119.60536</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>65692923.739</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4301580.57531</v>
+        <v>4252491.042350001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>5070245.273680001</v>
+        <v>5012668.810280001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7401016.971809999</v>
+        <v>7320658.41025</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7693678.090270001</v>
+        <v>7728876.43729</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8544932.14972</v>
+        <v>8544817.61702</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10237223.03733</v>
+        <v>10234530.52105</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8874790.078540001</v>
+        <v>10691958.93106</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>11832486.70132</v>
+        <v>11927750.42365</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>16135098.793</v>
+        <v>15886662.68003</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20736147.6551</v>
+        <v>20472511.75622</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>24560466.41837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>24333389.34209</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>29700030.777</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>129355.70236</v>
+        <v>121551.69484</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>128008.39764</v>
+        <v>122140.07382</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>268983.51716</v>
+        <v>262035.95002</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>225819.23763</v>
+        <v>216878.97328</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>268094.03272</v>
+        <v>262192.0548</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>343966.69214</v>
+        <v>338317.77783</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>386837.43996</v>
+        <v>407806.05016</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>729924.8450799999</v>
+        <v>706516.27948</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>884512.1808</v>
+        <v>872168.33878</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>961112.9214100001</v>
+        <v>956105.09811</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1002785.05163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>988369.6100099999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1204054.46</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1105228.11268</v>
+        <v>1096450.70141</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1374180.64543</v>
+        <v>1358674.51855</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1539944.94644</v>
+        <v>1525695.01335</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1933153.0718</v>
+        <v>1918315.42008</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1978134.39115</v>
+        <v>1946980.56295</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2323424.35146</v>
+        <v>2292976.71822</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2010862.89402</v>
+        <v>2336187.94914</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2856501.84213</v>
+        <v>2797512.06828</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3730494.02062</v>
+        <v>3686116.56617</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4347366.4121</v>
+        <v>4323254.93811</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5001854.90749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4961404.1116</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7076343.891</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>120496.98989</v>
+        <v>115603.67363</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>114567.66233</v>
+        <v>108141.6964</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>147982.3047</v>
+        <v>142141.70065</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>167513.49357</v>
+        <v>163770.95281</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>160801.60806</v>
+        <v>155062.0081</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>328276.61727</v>
+        <v>314676.04238</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>287550.60418</v>
+        <v>295510.92968</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>454471.07896</v>
+        <v>441612.07822</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>519838.94261</v>
+        <v>495791.62097</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>498905.1081599999</v>
+        <v>485691.83329</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>648052.86214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>617945.0258899999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>641573.814</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>914123.9161499999</v>
+        <v>910977.15413</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1179595.06565</v>
+        <v>1170909.8385</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1306261.4621</v>
+        <v>1300033.15791</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1657315.91389</v>
+        <v>1649284.36777</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1716308.70992</v>
+        <v>1689698.55617</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1845971.92933</v>
+        <v>1826861.25626</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1567771.38416</v>
+        <v>1843997.25951</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2195022.45208</v>
+        <v>2149958.24189</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2952232.987689999</v>
+        <v>2937234.13544</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3395526.25794</v>
+        <v>3394388.23384</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3926147.17805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3918700.4115</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5924954.275</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>70607.20664</v>
+        <v>69869.87365000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>80017.91745000001</v>
+        <v>79622.98365000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>85701.17963999999</v>
+        <v>83520.15478999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>108323.66434</v>
+        <v>105260.0995</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>101024.07317</v>
+        <v>102219.99868</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>149175.80486</v>
+        <v>151439.41958</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>155540.90568</v>
+        <v>196679.75995</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>207008.31109</v>
+        <v>205941.74817</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>258422.09032</v>
+        <v>253090.80976</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>452935.046</v>
+        <v>443174.87098</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>427654.8673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>424758.67421</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>509815.802</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>12329165.48563</v>
+        <v>12026037.74053</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>15655579.12427</v>
+        <v>15215262.60656</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>22274825.95326</v>
+        <v>21707471.19724</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>24201169.96495</v>
+        <v>23857795.32514</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>25834366.26353</v>
+        <v>25595613.97157</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>30946720.44614</v>
+        <v>30272080.66521</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>32824686.71461</v>
+        <v>35396566.76754</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>41962039.28973</v>
+        <v>40874033.35722999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>56876610.15741</v>
+        <v>55607302.38702</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>61296247.30559</v>
+        <v>60463071.85109001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>69746963.37155999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>68896474.44586</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>89520665.08499999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9809054.38311</v>
+        <v>9555928.57842</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>13051706.67198</v>
+        <v>12679954.93146</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>18341053.31233</v>
+        <v>17865302.93927</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>20341852.79454</v>
+        <v>20056629.13804</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>21216097.51625</v>
+        <v>20991987.8765</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>25543964.8386</v>
+        <v>24974486.25626</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>26541434.2141</v>
+        <v>28612125.00805</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>33702504.77176</v>
+        <v>32757941.19954</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>45709231.33418</v>
+        <v>44666230.65561</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>48283333.89466999</v>
+        <v>47651276.25821</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>55988412.96941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>55448912.0769</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>69046658.581</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>8850434.86774</v>
+        <v>8624427.26323</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>11787414.20639</v>
+        <v>11463334.04219</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>16602322.71866</v>
+        <v>16192314.82976</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>18486205.54108</v>
+        <v>18172507.34574</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>18968316.65618</v>
+        <v>18796384.2035</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>22842683.2426</v>
+        <v>22386454.06544</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>23212122.54336</v>
+        <v>25127614.10224</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>29274386.75025</v>
+        <v>28502256.23753</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>40193520.27369</v>
+        <v>39274599.27564</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>42446080.94671</v>
+        <v>41852732.1716</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>50460339.83180001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>49981512.97496</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>62218164.56</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>783139.3151099999</v>
+        <v>763867.26463</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1059567.0309</v>
+        <v>1017074.26303</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1451031.99756</v>
+        <v>1395987.81377</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1489509.17707</v>
+        <v>1520776.25281</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1908173.11231</v>
+        <v>1858090.94663</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2223177.24148</v>
+        <v>2124758.5975</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2821791.64668</v>
+        <v>2946116.18143</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3736875.75405</v>
+        <v>3586226.16576</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4764906.238519999</v>
+        <v>4651151.53504</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5129918.63108</v>
+        <v>5098745.098590001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4796146.00324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4747044.33017</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6078143.335</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>49699.92288</v>
+        <v>41853.77318</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>91249.71421000001</v>
+        <v>90079.53993000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>131876.31783</v>
+        <v>124115.44488</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>103688.69025</v>
+        <v>101451.78233</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>56114.56324</v>
+        <v>55953.89334</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>79872.00678999998</v>
+        <v>74345.95706999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>112474.07959</v>
+        <v>108070.68759</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>151948.4514</v>
+        <v>136265.69564</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>189763.7746</v>
+        <v>182539.83382</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>146892.1481</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>173904.99029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>170565.99907</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>185287.615</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>125780.27738</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>113475.72048</v>
+        <v>109467.08631</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>155822.27828</v>
+        <v>152884.85086</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>262449.38614</v>
+        <v>261893.75716</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>283493.18452</v>
+        <v>281558.83303</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>398232.34773</v>
+        <v>388927.63625</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>395045.94447</v>
+        <v>430324.03679</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>539293.81606</v>
+        <v>533193.10061</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>561041.04737</v>
+        <v>557940.01111</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>560442.1687799999</v>
+        <v>552906.8399199999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>558022.1440799999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>549788.7727000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>565063.071</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2520111.10252</v>
+        <v>2470109.16211</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2603872.45229</v>
+        <v>2535307.6751</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3933772.64093</v>
+        <v>3842168.25797</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3859317.17041</v>
+        <v>3801166.1871</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4618268.74728</v>
+        <v>4603626.09507</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5402755.60754</v>
+        <v>5297594.40895</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6283252.500510001</v>
+        <v>6784441.75949</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8259534.517969999</v>
+        <v>8116092.157690001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>11167378.82323</v>
+        <v>10941071.73141</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13012913.41092</v>
+        <v>12811795.59288</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13758550.40215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13447562.36896</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>20474006.504</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1209028.46005</v>
+        <v>1173514.0325</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1473547.1875</v>
+        <v>1424907.1603</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1826323.22436</v>
+        <v>1768829.59126</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2170103.29391</v>
+        <v>2098037.87519</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2367413.34807</v>
+        <v>2332137.65418</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2907236.90152</v>
+        <v>2800563.6554</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3008888.11363</v>
+        <v>3375997.70493</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4036245.89611</v>
+        <v>3940636.96941</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4913105.7761</v>
+        <v>4799001.70513</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5140958.985760001</v>
+        <v>5053418.1962</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6139115.24837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6033437.201149999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7855441.946</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>29358.31503</v>
+        <v>28946.7738</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>34735.5722</v>
+        <v>34665.16203</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>48951.53467</v>
+        <v>48701.95172</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>64358.77251</v>
+        <v>63865.66021</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>70910.11804999999</v>
+        <v>70082.26987</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>74559.1765</v>
+        <v>73982.57142000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>85831.43864000001</v>
+        <v>92833.01332</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>93641.44176</v>
+        <v>93993.55778999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>101575.70138</v>
+        <v>100958.60409</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>128021.55778</v>
+        <v>127831.14923</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>194314.7442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>192781.03619</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>268264.471</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>703859.4111899999</v>
+        <v>690001.1880399999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>845861.15752</v>
+        <v>828223.93197</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1072176.19071</v>
+        <v>1047031.22333</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1255629.31054</v>
+        <v>1237211.42573</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1371673.04124</v>
+        <v>1367422.58309</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1677236.18912</v>
+        <v>1649805.05245</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1701908.67382</v>
+        <v>1899612.66453</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2225276.67718</v>
+        <v>2206925.70087</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2736630.15299</v>
+        <v>2692889.84512</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2790248.00968</v>
+        <v>2751116.74509</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3233014.49445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3191066.32146</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4175054.292</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>475810.73383</v>
+        <v>454566.07066</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>592950.4577799999</v>
+        <v>562018.0662999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>705195.49898</v>
+        <v>673096.4162100001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>850115.2108599999</v>
+        <v>796960.78925</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>924830.18878</v>
+        <v>894632.80122</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1155441.5359</v>
+        <v>1076776.03153</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1221148.00117</v>
+        <v>1383552.02708</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1717327.77717</v>
+        <v>1639717.71075</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2074899.92173</v>
+        <v>2005153.25592</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2222689.4183</v>
+        <v>2174470.30188</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2711786.00972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2649589.8435</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3412123.183</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1311082.64247</v>
+        <v>1296595.12961</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1130325.26479</v>
+        <v>1110400.5148</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2107449.41657</v>
+        <v>2073338.66671</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1689213.8765</v>
+        <v>1703128.31191</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2250855.39921</v>
+        <v>2271488.44089</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2495518.70602</v>
+        <v>2497030.75355</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3274364.38688</v>
+        <v>3408444.05456</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4223288.621859999</v>
+        <v>4175455.18828</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6254273.04713</v>
+        <v>6142070.026280001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7871954.42516</v>
+        <v>7758377.39668</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7619435.15378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7414125.16781</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>12618564.558</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>893027.7333099999</v>
+        <v>841613.3105499999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>957733.9653299999</v>
+        <v>923990.02975</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1368887.76474</v>
+        <v>1339287.14315</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1471024.73137</v>
+        <v>1461004.82615</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1417729.87693</v>
+        <v>1389869.06221</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3256298.99756</v>
+        <v>3198307.59576</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2939821.92577</v>
+        <v>3152210.46739</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3276516.854</v>
+        <v>3181785.0929</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4414115.229180001</v>
+        <v>4325037.41463</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9867940.39243</v>
+        <v>9665506.058430001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6650262.68587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6561589.54604</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11577118.729</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4723.23678</v>
+        <v>4518.27815</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>14277.05387</v>
@@ -1784,13 +1795,13 @@
         <v>17386.23914</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>22851.51825</v>
+        <v>22821.05482</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>31153.16479</v>
+        <v>31496.18867</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>148230.86791</v>
+        <v>147794.75735</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>47732.63958</v>
@@ -1801,23 +1812,28 @@
       <c r="M26" s="48" t="n">
         <v>236101.30183</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>11149.014</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>24176.41465</v>
+        <v>2786.32892</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>7599.06495</v>
+        <v>3027.74206</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>3854.47393</v>
+        <v>1892.64007</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>19150.08512</v>
+        <v>19125.84128</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>2418.59973</v>
@@ -1826,7 +1842,7 @@
         <v>7560.1573</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>9362.411759999999</v>
+        <v>11798.23533</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>14082.07958</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>94809.42857999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>57137.954</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>76462.00882999999</v>
+        <v>73640.65461</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>70627.87181999999</v>
+        <v>66005.41833</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>78872.04828</v>
+        <v>75171.182</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>101694.61254</v>
+        <v>96238.08746000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>79544.99971</v>
+        <v>75408.5197</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>96670.25209000001</v>
+        <v>88438.99412999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>116327.19805</v>
+        <v>120155.1294</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>163603.29523</v>
+        <v>159076.47991</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>342149.54814</v>
+        <v>337557.86753</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>554106.4050599999</v>
+        <v>537471.44913</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>532039.70151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>517661.51292</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>425905.391</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>327.73602</v>
+        <v>317.18781</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>3132.50253</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1252.57574</v>
+        <v>1251.50574</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>4285.078469999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1377.0828</v>
+        <v>1376.7213</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4459.42202</v>
+        <v>4394.10663</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5526.318810000001</v>
+        <v>6176.90954</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2220.85944</v>
+        <v>1386.28945</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2302.64955</v>
+        <v>2296.5359</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>4812.123529999999</v>
@@ -1918,131 +1944,151 @@
       <c r="M29" s="48" t="n">
         <v>7269.652099999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>13675.79</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>32617.20505</v>
+        <v>31214.27156</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>18799.27528</v>
+        <v>18483.51116</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>27752.00387</v>
+        <v>27511.97595</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>27357.48468</v>
+        <v>27132.69387</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>31131.94729</v>
+        <v>31020.76423</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>31129.94015</v>
+        <v>30438.57307</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>31185.78406</v>
+        <v>35683.72174</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>52895.65679</v>
+        <v>52044.54151</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>56711.00645</v>
+        <v>54697.4109</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>50746.86513000001</v>
+        <v>50374.01795</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>66609.61276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>66160.538</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>71997.247</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>3452.03307</v>
+        <v>3142.78283</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4280.391509999999</v>
+        <v>4264.64647</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4877.486550000001</v>
+        <v>4755.044910000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>4601.643190000001</v>
+        <v>4587.45655</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3114.28874</v>
+        <v>3076.49477</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7598.99082</v>
+        <v>7598.853389999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>22723.2438</v>
+        <v>23104.53071</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>15563.78208</v>
+        <v>15538.67962</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>13317.82153</v>
+        <v>13276.57856</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13368.97909</v>
+        <v>13365.82526</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>557262.33023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>557258.88376</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>48164.855</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>653489.33058</v>
+        <v>630496.42167</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>724368.68192</v>
+        <v>702410.0778300001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1108127.30254</v>
+        <v>1089668.24839</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1172555.85153</v>
+        <v>1170539.75265</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1120301.794</v>
+        <v>1098899.01346</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2861601.71494</v>
+        <v>2824249.08687</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2425377.99486</v>
+        <v>2627230.72193</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2268278.01583</v>
+        <v>2191296.26164</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3293480.27497</v>
+        <v>3236472.21245</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8253945.055930001</v>
+        <v>8086151.59766</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4540310.05355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4472848.131940001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10179521.914</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>5054.535059999999</v>
+        <v>5039.31085</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>3835.88597</v>
@@ -2051,22 +2097,22 @@
         <v>5220.686360000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>3471.6385</v>
+        <v>6546.27755</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>20916.5795</v>
+        <v>19957.8796</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>51104.8147</v>
+        <v>50101.71345</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>64891.48073</v>
+        <v>63978.17008</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>85845.38993999999</v>
+        <v>88428.25840000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>120967.27937</v>
+        <v>120744.7091</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>162249.36199</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>141684.69404</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>118800.771</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>36.14679</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>1361.58899</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>166.09247</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>44.11349</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>653.196</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>92689.08647999998</v>
+        <v>90458.07415</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>110813.23748</v>
+        <v>108553.19153</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>118895.57428</v>
+        <v>113780.24654</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>125802.32173</v>
+        <v>120443.62271</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>141538.34602</v>
+        <v>140324.83028</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>173322.18729</v>
+        <v>161343.46711</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>233108.23644</v>
+        <v>232420.76752</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>525796.9072</v>
+        <v>512137.74544</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>402984.20749</v>
+        <v>377789.65851</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>486044.09044</v>
+        <v>468414.17165</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>474131.79778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>467751.28938</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>650112.597</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>796200.97381</v>
+        <v>770867.12975</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>762981.15264</v>
+        <v>740491.49501</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1833515.32127</v>
+        <v>1795616.56712</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>992603.08274</v>
+        <v>988615.72822</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1937593.24356</v>
+        <v>1883483.47794</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3127197.69988</v>
+        <v>3082506.79012</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3129611.05705</v>
+        <v>3260998.77587</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3380299.63719</v>
+        <v>3250930.79497</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4104209.12411</v>
+        <v>4014757.44969</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9691257.84175</v>
+        <v>9472313.722889999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5322830.22654</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5228219.1114</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10732103.923</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5722.389700000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>7213.59929</v>
+        <v>7194.16817</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>8646.851049999999</v>
+        <v>8534.545390000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>9405.750330000001</v>
+        <v>9405.48696</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3854.56486</v>
+        <v>3427.24001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8251.05574</v>
+        <v>8136.801469999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6211.61229</v>
+        <v>5459.283469999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>6931.31513</v>
+        <v>6615.41743</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>9757.424690000002</v>
+        <v>8933.06409</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>15535.09038</v>
+        <v>15515.09038</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>18623.18206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>18584.93903</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>41364.815</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>90905.02399</v>
+        <v>89510.37974999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>67804.23749</v>
+        <v>67003.85618</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>68112.04627000001</v>
+        <v>67570.32040000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>98706.55128999999</v>
+        <v>95219.72835999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>100746.63064</v>
+        <v>99376.126</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>114839.40562</v>
+        <v>110656.66769</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>127917.63157</v>
+        <v>157316.49884</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>192954.30413</v>
+        <v>189266.79493</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>234852.61682</v>
+        <v>231049.41351</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>285113.14403</v>
+        <v>278361.67745</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>288958.24194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>284658.41184</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>346925.625</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2626.07698</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>10791.5698</v>
+        <v>7953.30457</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>746.8614</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>582.85371</v>
+        <v>15275.77557</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>7575.16835</v>
+        <v>6381.07883</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>380.84969</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>890.7378100000001</v>
+        <v>761.9517</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>59947.24894</v>
+        <v>59947.23744</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>8606.422210000001</v>
@@ -2308,77 +2384,87 @@
       <c r="M39" s="48" t="n">
         <v>957.05837</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1997.46</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>630769.3193199999</v>
+        <v>608068.97444</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>612071.7842999999</v>
+        <v>593608.68325</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1685098.22183</v>
+        <v>1648904.84027</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>790473.48266</v>
+        <v>773814.11298</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1706568.72667</v>
+        <v>1656369.70641</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2873508.45246</v>
+        <v>2833228.85849</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2830386.92224</v>
+        <v>2934740.44914</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2842874.68655</v>
+        <v>2723955.84559</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3547184.94937</v>
+        <v>3467640.40209</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8990035.88335</v>
+        <v>8779554.102849998</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4663473.77566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4572302.57859</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9872617.968</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4487.17529</v>
+        <v>4281.43563</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>4603.64614</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>6357.08844</v>
+        <v>6310.853889999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>4365.66945</v>
+        <v>7177.92086</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>39339.51967</v>
+        <v>38557.10455999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>53991.99842</v>
+        <v>53595.46996</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>72145.37878</v>
+        <v>71440.08928999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>111740.75855</v>
+        <v>113108.4934</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>133496.54841</v>
+        <v>133235.2546</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>174094.59581</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>120674.63505</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>162456.906</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>61690.98853</v>
+        <v>60657.87325</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>60496.31562</v>
+        <v>60127.8367</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>64554.25228</v>
+        <v>63549.14577</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>89068.77529999999</v>
+        <v>87722.70349000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>79508.63337000001</v>
+        <v>79372.22212999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>76225.93795000001</v>
+        <v>76508.14281999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>91932.76069</v>
+        <v>91154.48976</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>165851.32389</v>
+        <v>158037.00618</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>170311.16261</v>
+        <v>165292.89319</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>224436.0664</v>
+        <v>222745.19462</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>230143.33346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>231041.48852</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>306740.894</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>451607.31537</v>
+        <v>430575.98436</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>358963.94467</v>
+        <v>340635.19598</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>685267.7700499999</v>
+        <v>664565.07362</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>689295.0855599999</v>
+        <v>675574.10061</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>980838.55856</v>
+        <v>954966.5060899999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>959433.2299800001</v>
+        <v>903170.44604</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1304121.14136</v>
+        <v>1380963.48285</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1737271.72901</v>
+        <v>1657721.6407</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2632841.18044</v>
+        <v>2558177.07075</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4052072.25706</v>
+        <v>3892160.92868</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3173103.52571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3009436.78609</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4438602.46</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>341918.63181</v>
+        <v>322855.86685</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>262582.77429</v>
+        <v>245997.06605</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>499878.3979099999</v>
+        <v>485478.16342</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>560394.94726</v>
+        <v>545592.5634400001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>685144.17814</v>
+        <v>659480.0577799999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>758282.19025</v>
+        <v>702053.73617</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1044768.35013</v>
+        <v>1051763.69294</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1395188.81414</v>
+        <v>1322558.94268</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2058853.24301</v>
+        <v>1991774.48763</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2599052.08422</v>
+        <v>2480300.94803</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2453307.79102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2308787.44671</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3036087.524</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>109688.68356</v>
+        <v>107720.11751</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>96381.17038</v>
+        <v>94638.12993</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>185389.37214</v>
+        <v>179086.9102</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>128900.1383</v>
+        <v>129981.53717</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>295694.3804199999</v>
+        <v>295486.44831</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>201151.03973</v>
+        <v>201116.70987</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>259352.79123</v>
+        <v>329199.78991</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>342082.91487</v>
+        <v>335162.69802</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>573987.93743</v>
+        <v>566402.58312</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1453020.17284</v>
+        <v>1411859.98065</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>719795.73469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>700649.33938</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1402514.936</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>956302.0866</v>
+        <v>936765.3260499999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>966114.13281</v>
+        <v>953263.85356</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>957554.08999</v>
+        <v>952444.16912</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1478340.43957</v>
+        <v>1499943.30923</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>750153.47402</v>
+        <v>822907.5190699999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1665186.77372</v>
+        <v>1709661.11315</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1780454.11424</v>
+        <v>1918692.26323</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2382234.10966</v>
+        <v>2448587.84551</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3931337.97176</v>
+        <v>3894172.92047</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3996564.71878</v>
+        <v>4059408.80354</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5773764.0874</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5738058.816360001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9024976.903999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>83350.58283</v>
+        <v>79771.88728</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>78873.29464000001</v>
+        <v>67018.40968</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>103939.93643</v>
+        <v>99727.68359999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>140073.41222</v>
+        <v>135598.19903</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>153506.86139</v>
+        <v>144386.9182</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>418083.33147</v>
+        <v>410842.87722</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>388793.15464</v>
+        <v>386508.94026</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>500173.91282</v>
+        <v>472381.8607</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>394657.05102</v>
+        <v>378242.43703</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>408102.91472</v>
+        <v>398055.69669</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>460608.51527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>416671.56298</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>527985.4620000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4184.61983</v>
+        <v>3861.23808</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2111.2425</v>
+        <v>1976.42711</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2023.14488</v>
+        <v>1931.95412</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2689.99429</v>
+        <v>2050.25851</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5889.4024</v>
+        <v>5812.86842</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3706.38967</v>
+        <v>3650.5285</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3750.73257</v>
+        <v>5421.51629</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>39085.14541</v>
+        <v>39505.07734</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>13815.1951</v>
+        <v>12345.7796</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12772.35682</v>
+        <v>12545.54488</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>39513.41118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>39254.05028</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>57884.063</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>79165.963</v>
+        <v>75910.6492</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>76762.05214</v>
+        <v>65041.98257</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>101916.79155</v>
+        <v>97795.72947999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>137383.41793</v>
+        <v>133547.94052</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>147617.45899</v>
+        <v>138574.04978</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>414376.9418</v>
+        <v>407192.34872</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>385042.42207</v>
+        <v>381087.4239699999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>461088.76741</v>
+        <v>432876.78336</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>380841.8559199999</v>
+        <v>365896.65743</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>395330.5579</v>
+        <v>385510.1518100001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>421095.10409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>377417.5127</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>470101.399</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>140612.25957</v>
+        <v>136202.82504</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>126079.75951</v>
+        <v>114779.78489</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>248939.4174</v>
+        <v>231762.08829</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>194851.73294</v>
+        <v>191691.49347</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>173407.4047</v>
+        <v>167948.94519</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>241071.04035</v>
+        <v>233105.36201</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>360669.61517</v>
+        <v>375995.91944</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>412220.96128</v>
+        <v>389680.10685</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>513710.12857</v>
+        <v>506580.34367</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>408746.62755</v>
+        <v>392086.51144</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>519122.9359400001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>468612.30509</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>493316.114</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>74087.46345000001</v>
+        <v>71564.61338</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>49544.89627</v>
+        <v>47704.15335</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>88924.66900999998</v>
+        <v>86408.51297999998</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>97904.32305000001</v>
+        <v>95473.3134</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>97779.10702000001</v>
+        <v>96829.80795999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>105644.8762</v>
+        <v>105238.40468</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>132665.61456</v>
+        <v>125889.28342</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>137293.12725</v>
+        <v>131592.33057</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>215408.08004</v>
+        <v>213946.2228</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>144390.28832</v>
+        <v>132439.75836</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>216661.65557</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>188812.89014</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>181355.521</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3927.10149</v>
+        <v>3651.88751</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2938.42349</v>
+        <v>2802.7767</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6606.28361</v>
+        <v>5295.92341</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5672.03199</v>
+        <v>5893.39433</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6268.57509</v>
+        <v>6062.63588</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15562.29603</v>
+        <v>13470.04395</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11602.96576</v>
+        <v>16704.33275</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>38627.6553</v>
+        <v>40890.80598999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>34792.02024000001</v>
+        <v>34265.1662</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>45413.47413</v>
+        <v>45385.29792</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>79589.81628</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>78838.37271000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>70006.243</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>62597.69463000001</v>
+        <v>60986.32415000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>73596.43975000001</v>
+        <v>64272.85483999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>153408.46478</v>
+        <v>140057.6519</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>91275.37790000001</v>
+        <v>90324.78574000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>69359.72259</v>
+        <v>65056.50135</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>119863.86812</v>
+        <v>114396.91338</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>216401.03485</v>
+        <v>233402.30327</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>236300.17873</v>
+        <v>217196.97029</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>263510.02829</v>
+        <v>258368.95467</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>218942.8651</v>
+        <v>214261.45516</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>222871.46409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>200961.04224</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>241954.35</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>899040.40986</v>
+        <v>880334.3882899999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>918907.6679400001</v>
+        <v>905502.4783499999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>812554.60902</v>
+        <v>820409.7644300001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1423562.11885</v>
+        <v>1443850.01479</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>730252.93071</v>
+        <v>799345.49208</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1842199.06484</v>
+        <v>1887398.62836</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1808577.65371</v>
+        <v>1929205.28405</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2470187.0612</v>
+        <v>2531289.59936</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3812284.89421</v>
+        <v>3765835.01383</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3995921.00595</v>
+        <v>4065377.98879</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5715249.66673</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5686118.07425</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>9059646.252</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>161657.18287</v>
+        <v>159895.85291</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>187157.1837</v>
+        <v>184193.93969</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>184663.21955</v>
+        <v>180888.23377</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>249603.36798</v>
+        <v>247723.61038</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>203903.39344</v>
+        <v>215207.92004</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>282010.18296</v>
+        <v>281957.70387</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>311192.44272</v>
+        <v>342951.82549</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>474633.57717</v>
+        <v>469896.65674</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>637684.08756</v>
+        <v>625441.2931900001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>711733.61843</v>
+        <v>710327.97074</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>814082.6195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>804225.04009</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1403267.278</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>737383.22699</v>
+        <v>720438.53538</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>731750.48424</v>
+        <v>721308.53866</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>627891.3894700001</v>
+        <v>639521.53066</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1173958.75087</v>
+        <v>1196126.40441</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>526349.53727</v>
+        <v>584137.57204</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1560188.88188</v>
+        <v>1605440.92449</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1497385.21099</v>
+        <v>1586253.45856</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1995553.48403</v>
+        <v>2061392.94262</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3174600.80665</v>
+        <v>3140393.72064</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3284187.38752</v>
+        <v>3355050.01805</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4901167.04723</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4881893.03416</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7656378.974</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="L59" s="35" t="n">
+        <v>158</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>168</v>
       </c>
-      <c r="M59" s="35" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>